--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3376153.904343128</v>
+        <v>3370413.789634913</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359929</v>
+        <v>6663746.095359935</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958794</v>
+        <v>60.40703714891007</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174301</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.59348854328322</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>45.87488908974656</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356726</v>
+        <v>66.70865780356731</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100825</v>
+        <v>59.24433418100834</v>
       </c>
       <c r="S3" t="n">
-        <v>68.63356009830991</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>121.3842648627974</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.00744983764619</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>85.26595219976636</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.39479380343643</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,7 +992,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>371.256279962327</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3.31166382140158</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>118.9913269637018</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>155.1499317420158</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>149.1515590462899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>9.464075951578103</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>88.23797643592228</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>62.09581973348857</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>47.59990604631797</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2292,13 +2292,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>203.4068132192022</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.16981644935721</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2772,13 +2772,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>206.7472017268226</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>142.6955872305729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>15.0743711067587</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>138.3049984757152</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>15.11174121957136</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.47271252687777</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>133.4004220955977</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>194.0338686928871</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.714088951547883</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>181.4487096095777</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="H46" t="n">
-        <v>78.58151650834228</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1041.189739742037</v>
+        <v>1681.619768071305</v>
       </c>
       <c r="C2" t="n">
-        <v>1041.189739742037</v>
+        <v>1681.619768071305</v>
       </c>
       <c r="D2" t="n">
-        <v>1041.189739742037</v>
+        <v>1323.354069464554</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.189739742037</v>
+        <v>937.5658168663099</v>
       </c>
       <c r="F2" t="n">
-        <v>630.2038349524291</v>
+        <v>526.5799120767024</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307498</v>
+        <v>108.3262354550231</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>108.3262354550231</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369985</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015909</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060718</v>
+        <v>397.0764468060711</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927208</v>
+        <v>769.5640925927196</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689015</v>
+        <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811684</v>
+        <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633676</v>
+        <v>1978.679112633673</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054136</v>
+        <v>2243.673398054133</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684993</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804444</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="S2" t="n">
-        <v>2278.483371296077</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="T2" t="n">
-        <v>2058.579804822426</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="U2" t="n">
-        <v>1804.794829978928</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="V2" t="n">
-        <v>1804.794829978928</v>
+        <v>2034.388423341419</v>
       </c>
       <c r="W2" t="n">
-        <v>1804.794829978928</v>
+        <v>1681.619768071305</v>
       </c>
       <c r="X2" t="n">
-        <v>1431.329071717848</v>
+        <v>1681.619768071305</v>
       </c>
       <c r="Y2" t="n">
-        <v>1041.189739742037</v>
+        <v>1681.619768071305</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>735.3816091763052</v>
+        <v>643.6546745992243</v>
       </c>
       <c r="C3" t="n">
-        <v>560.9285798951782</v>
+        <v>469.2016453180973</v>
       </c>
       <c r="D3" t="n">
-        <v>411.9941702339269</v>
+        <v>320.2672356568461</v>
       </c>
       <c r="E3" t="n">
-        <v>252.7567152284714</v>
+        <v>161.0297806513906</v>
       </c>
       <c r="F3" t="n">
-        <v>252.7567152284714</v>
+        <v>161.0297806513906</v>
       </c>
       <c r="G3" t="n">
-        <v>114.6915088435658</v>
+        <v>161.0297806513906</v>
       </c>
       <c r="H3" t="n">
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369985</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683011</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422608</v>
+        <v>278.0105538592118</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852939</v>
+        <v>649.6216244022446</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874831</v>
+        <v>1135.253437604433</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030032</v>
+        <v>1649.445493246982</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119904</v>
+        <v>1905.563735119902</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695913</v>
+        <v>2212.78188369591</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684993</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885994</v>
+        <v>2305.608548885991</v>
       </c>
       <c r="S3" t="n">
-        <v>2236.281720503863</v>
+        <v>2144.554785926782</v>
       </c>
       <c r="T3" t="n">
-        <v>2036.778037664594</v>
+        <v>1945.051103087513</v>
       </c>
       <c r="U3" t="n">
-        <v>1808.598210126804</v>
+        <v>1716.871275549723</v>
       </c>
       <c r="V3" t="n">
-        <v>1573.446101895061</v>
+        <v>1481.719167317981</v>
       </c>
       <c r="W3" t="n">
-        <v>1319.20874516686</v>
+        <v>1227.481810589779</v>
       </c>
       <c r="X3" t="n">
-        <v>1111.357244961327</v>
+        <v>1019.630310384246</v>
       </c>
       <c r="Y3" t="n">
-        <v>903.5969461963732</v>
+        <v>811.8700116192924</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.1650361507162</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="C4" t="n">
-        <v>132.1650361507162</v>
+        <v>492.228706706339</v>
       </c>
       <c r="D4" t="n">
-        <v>132.1650361507162</v>
+        <v>342.1120672940033</v>
       </c>
       <c r="E4" t="n">
-        <v>132.1650361507162</v>
+        <v>194.1989737116101</v>
       </c>
       <c r="F4" t="n">
-        <v>132.1650361507162</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="G4" t="n">
-        <v>132.1650361507162</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="H4" t="n">
-        <v>132.1650361507162</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369985</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369985</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181622</v>
+        <v>88.805294101816</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365667</v>
+        <v>197.4326649365663</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950605</v>
+        <v>322.3541198950599</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896751</v>
+        <v>449.7398382896744</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885941</v>
+        <v>551.3848716885932</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546204</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546204</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546204</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546204</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546204</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546204</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="V4" t="n">
-        <v>360.1545870487336</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="W4" t="n">
-        <v>360.1545870487336</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="X4" t="n">
-        <v>132.1650361507162</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="Y4" t="n">
-        <v>132.1650361507162</v>
+        <v>614.8390752546193</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="C5" t="n">
-        <v>1689.203741822952</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="D5" t="n">
-        <v>1689.203741822952</v>
+        <v>1090.310339657335</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.415489224708</v>
+        <v>704.5220870590908</v>
       </c>
       <c r="F5" t="n">
-        <v>892.4295844351004</v>
+        <v>293.5361822694833</v>
       </c>
       <c r="G5" t="n">
-        <v>474.4657763332873</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>147.2710563692901</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,40 +4649,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>449.8182300272669</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2693.80397604711</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2517.62648836128</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2517.62648836128</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2517.62648836128</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2186.563601017709</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2186.563601017709</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.097842756629</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.958510780817</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2730.49472550168</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089887</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5132,40 +5132,40 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1023.336921276364</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C13" t="n">
-        <v>854.4007383484569</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1799.62636333499</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1799.62636333499</v>
       </c>
       <c r="V13" t="n">
-        <v>1355.643526557401</v>
+        <v>1544.941875129103</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.643526557401</v>
+        <v>1255.524705092143</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.985386106604</v>
+        <v>1027.535154194125</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.985386106604</v>
+        <v>806.7425750505952</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>416.3606924710459</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>750.1800661608922</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814247</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,13 +5357,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>982.3091775539871</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C16" t="n">
-        <v>813.3729946260802</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D16" t="n">
-        <v>663.2563552137444</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384227</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.957642384227</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>1163.957642384227</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>1163.957642384227</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="17">
@@ -5515,22 +5515,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176192</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1407.474004094474</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>1941.005908766399</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.758180993045</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3858.203957510973</v>
+        <v>460.4910241367934</v>
       </c>
       <c r="C19" t="n">
-        <v>3689.267774583067</v>
+        <v>291.5548412088865</v>
       </c>
       <c r="D19" t="n">
-        <v>3539.151135170731</v>
+        <v>291.5548412088865</v>
       </c>
       <c r="E19" t="n">
-        <v>3391.238041588338</v>
+        <v>143.6417476264934</v>
       </c>
       <c r="F19" t="n">
-        <v>3328.514991352491</v>
+        <v>143.6417476264934</v>
       </c>
       <c r="G19" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>4778.051722419721</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>4778.051722419721</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>4778.051722419721</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>4488.63455238276</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X19" t="n">
-        <v>4260.645001484743</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y19" t="n">
-        <v>4039.852422341213</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5831,25 +5831,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,25 +5925,25 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
         <v>1015.408799357142</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6089,19 +6089,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>657.7758834233814</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>488.8397004954745</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>488.8397004954745</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>488.8397004954745</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>341.9497529975641</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1288.206478295169</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1060.216927397151</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>839.4243482536211</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,13 +6305,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384227</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>874.5404723472661</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>665.7049150474453</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.9123359039152</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176192</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>2215.249704195856</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N29" t="n">
-        <v>3195.001976422503</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>3678.485594538922</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,13 +6542,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1667.240599230347</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1667.240599230347</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="32">
@@ -6694,31 +6694,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>817.1408434279687</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C34" t="n">
-        <v>648.2046605000618</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D34" t="n">
-        <v>648.2046605000618</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>500.2915669176687</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6891,19 +6891,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>998.7893082582084</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>998.7893082582084</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>998.7893082582084</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001584</v>
@@ -6937,22 +6937,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L35" t="n">
-        <v>1614.698881814247</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M35" t="n">
-        <v>2593.249184644075</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>3573.001456870722</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
         <v>4470.748294107237</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,28 +7016,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.5269503710301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C37" t="n">
-        <v>393.5907674431232</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1385.724257814701</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V37" t="n">
-        <v>1131.039769608814</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W37" t="n">
-        <v>841.6225995718535</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X37" t="n">
-        <v>841.6225995718535</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.1754152012699</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176192</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195856</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N38" t="n">
-        <v>3195.001976422503</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>806.7425750505952</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C40" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1821.595564998039</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1532.492698123682</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1277.808209917795</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>988.3910398808349</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X40" t="n">
-        <v>988.3910398808349</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y40" t="n">
-        <v>988.3910398808349</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001596</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>953.4728278125324</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L41" t="n">
-        <v>1404.507041060941</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M41" t="n">
-        <v>2383.05734389077</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>3362.809616117416</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,25 +7490,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3382.067157037216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>3213.13097410931</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>3213.13097410931</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>3065.217880526916</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>3065.217880526916</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>3065.217880526916</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>2919.000693744774</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>4556.285106989247</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>4267.18224011489</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>4012.497751909003</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>4012.497751909003</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>3784.508201010986</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>3563.715621867456</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,28 +7648,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>1770.231306037952</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2749.983578264599</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3629.948228594053</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7687,7 +7687,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,13 +7727,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>619.8559841413794</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C46" t="n">
-        <v>619.8559841413794</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D46" t="n">
-        <v>469.7393447290436</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E46" t="n">
-        <v>321.8262511466505</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9363036487402</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="G46" t="n">
-        <v>174.9363036487402</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>619.8559841413794</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>619.8559841413794</v>
+        <v>391.866433243363</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902262989</v>
       </c>
       <c r="K3" t="n">
-        <v>53.60948744535381</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>244.517516027283</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8698,22 +8698,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>201.9664098701126</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>251.1867816683989</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>133.2530576400263</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>172.4995987156025</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,19 +10117,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>103.7862464855158</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>123.471956347048</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L35" t="n">
-        <v>57.67224444723826</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,25 +10828,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>169.5026663584985</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>169.5026663584982</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,19 +11071,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>172.4995987156024</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>64.39901753415339</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>76.55809634274726</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>136.9698866949911</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>130.3466769161725</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>83.32522828944268</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>118.4259022127103</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>16.14213605696699</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>66.85599180967101</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445294</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>18.96245366221453</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>53.7364564735463</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>83.01406815846428</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>152.1724499918691</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>7.116049547216079</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>271.1000969860415</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>122.111940825217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>86.14852718057148</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>92.4891296437039</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>94.63833145829024</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>52.51544363394669</v>
       </c>
       <c r="H46" t="n">
-        <v>66.17349840597851</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>702807.9631310871</v>
+        <v>702807.9631310873</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>702807.9631310873</v>
+        <v>702807.9631310871</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>702807.9631310873</v>
+        <v>702807.963131087</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>702807.963131087</v>
+        <v>702807.9631310873</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>702807.963131087</v>
+        <v>702807.9631310871</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
@@ -26322,37 +26322,37 @@
         <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>714747.2163965701</v>
+        <v>714747.2163965704</v>
       </c>
       <c r="F2" t="n">
+        <v>714747.2163965704</v>
+      </c>
+      <c r="G2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="H2" t="n">
+        <v>714747.2163965708</v>
+      </c>
+      <c r="I2" t="n">
+        <v>714747.2163965704</v>
+      </c>
+      <c r="J2" t="n">
         <v>714747.2163965707</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>714747.2163965708</v>
+      </c>
+      <c r="L2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="M2" t="n">
         <v>714747.2163965704</v>
       </c>
-      <c r="H2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="I2" t="n">
-        <v>714747.2163965703</v>
-      </c>
-      <c r="J2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="K2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="L2" t="n">
-        <v>714747.2163965702</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>714747.2163965706</v>
       </c>
-      <c r="N2" t="n">
-        <v>714747.2163965704</v>
-      </c>
       <c r="O2" t="n">
-        <v>714747.2163965706</v>
+        <v>714747.2163965707</v>
       </c>
       <c r="P2" t="n">
         <v>714747.2163965704</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106485</v>
+        <v>493391.6844106477</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446859</v>
+        <v>91792.63957446947</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832161</v>
+        <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220067</v>
+        <v>21342.09858220087</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760455</v>
+        <v>235704.9591760458</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,40 +26426,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
+        <v>28561.83935289576</v>
+      </c>
+      <c r="F4" t="n">
         <v>28561.83935289575</v>
       </c>
-      <c r="F4" t="n">
-        <v>28561.83935289577</v>
-      </c>
       <c r="G4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289579</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289572</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140128</v>
+        <v>76261.1061314012</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66420.15684024028</v>
+        <v>-66420.15684024018</v>
       </c>
       <c r="C6" t="n">
-        <v>354363.4597769433</v>
+        <v>354363.4597769425</v>
       </c>
       <c r="D6" t="n">
         <v>446156.099351412</v>
       </c>
       <c r="E6" t="n">
-        <v>-137575.555203446</v>
+        <v>-138247.5101057036</v>
       </c>
       <c r="F6" t="n">
-        <v>589801.8587899613</v>
+        <v>589129.9038877032</v>
       </c>
       <c r="G6" t="n">
-        <v>589801.8587899611</v>
+        <v>589129.9038877033</v>
       </c>
       <c r="H6" t="n">
-        <v>589801.8587899611</v>
+        <v>589129.9038877035</v>
       </c>
       <c r="I6" t="n">
-        <v>589801.858789961</v>
+        <v>589129.9038877032</v>
       </c>
       <c r="J6" t="n">
-        <v>435075.323106745</v>
+        <v>434403.3682044875</v>
       </c>
       <c r="K6" t="n">
-        <v>568459.7602077604</v>
+        <v>567787.8053055027</v>
       </c>
       <c r="L6" t="n">
-        <v>589801.8587899609</v>
+        <v>589129.9038877034</v>
       </c>
       <c r="M6" t="n">
-        <v>460159.5439510164</v>
+        <v>459487.5890487583</v>
       </c>
       <c r="N6" t="n">
-        <v>589801.8587899611</v>
+        <v>589129.9038877033</v>
       </c>
       <c r="O6" t="n">
-        <v>589801.8587899612</v>
+        <v>589129.9038877034</v>
       </c>
       <c r="P6" t="n">
-        <v>589801.8587899611</v>
+        <v>589129.9038877032</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435501</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712482</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435501</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353655</v>
+        <v>71.38374637353724</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712482</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330743</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712482</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330743</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712482</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330743</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>102.5876836469695</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174318</v>
       </c>
       <c r="S2" t="n">
-        <v>167.3615493731736</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27472,10 +27472,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>59.9963613817358</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>90.80966523130684</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>45.86255623583041</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
@@ -27557,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>54.82927741376841</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848771</v>
+        <v>54.3008017384878</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731831</v>
+        <v>39.90169565731842</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631662</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467085</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27596,13 +27596,13 @@
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>328.5182178210287</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>59.53652244142482</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27824,16 +27824,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>21.8741453697219</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>10.67409010993481</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>51.16673875341014</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>167.5316713728892</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672562</v>
+        <v>1.23159765967256</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212163</v>
+        <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452651</v>
+        <v>47.4811687745264</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676342</v>
+        <v>104.530311867634</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015738</v>
+        <v>156.6638408015735</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787781</v>
+        <v>194.3553476787776</v>
       </c>
       <c r="M2" t="n">
-        <v>216.25777255898</v>
+        <v>216.2577725589795</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095247</v>
+        <v>219.7570494095242</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811556</v>
+        <v>207.5103501811552</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579892</v>
+        <v>177.1052829579888</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709655</v>
+        <v>132.9986917709652</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940667</v>
+        <v>77.3643464894065</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978855</v>
+        <v>28.06503166978848</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216645</v>
+        <v>5.391318755216632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380497</v>
+        <v>0.09852781277380475</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540512</v>
+        <v>0.6589628421540498</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014128</v>
+        <v>6.364193765014114</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784782</v>
+        <v>22.68797504784777</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403693</v>
+        <v>62.25753764403679</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683584</v>
+        <v>106.4080480683581</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966505</v>
+        <v>143.0787521966502</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247348</v>
+        <v>166.9661552247344</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302328</v>
+        <v>171.3852525302325</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382931</v>
+        <v>156.7840232382927</v>
       </c>
       <c r="P3" t="n">
-        <v>125.833000972382</v>
+        <v>125.8330009723817</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338381</v>
+        <v>84.11602876338362</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163488</v>
+        <v>40.91349997163479</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422108</v>
+        <v>12.23994577422105</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945495</v>
+        <v>2.656082683945489</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276655</v>
+        <v>0.04335281856276645</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654182</v>
+        <v>0.552452310865417</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967085</v>
+        <v>4.911803272967075</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584367</v>
+        <v>16.61374767584364</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818507</v>
+        <v>39.05837837818498</v>
       </c>
       <c r="K4" t="n">
-        <v>64.1849139350913</v>
+        <v>64.18491393509116</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448228</v>
+        <v>82.13459174448209</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502186</v>
+        <v>86.59941087502168</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361446</v>
+        <v>84.54027044361428</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395932</v>
+        <v>78.08662299395915</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230474</v>
+        <v>66.81659585230459</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437607</v>
+        <v>46.26034759437596</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400325</v>
+        <v>24.8402648140032</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263695</v>
+        <v>9.627737090263672</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515877</v>
+        <v>2.360478055515872</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084103</v>
+        <v>0.03013376241084096</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302172</v>
+        <v>92.58102251302149</v>
       </c>
       <c r="K2" t="n">
-        <v>260.719402327758</v>
+        <v>260.7194023277577</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592413</v>
+        <v>376.2501472592409</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245397</v>
+        <v>435.4250728245393</v>
       </c>
       <c r="N2" t="n">
-        <v>427.690910224918</v>
+        <v>427.6909102249174</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222143</v>
+        <v>358.2123200222138</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742023</v>
+        <v>267.6709953742019</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564207</v>
+        <v>123.0079925564204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777907</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>22.17609653935317</v>
+        <v>233.0318461065777</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202355</v>
+        <v>375.3647177202351</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527164</v>
+        <v>490.537185052716</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904531</v>
+        <v>519.3859147904527</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705781</v>
+        <v>258.7052948211312</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979889</v>
+        <v>310.3213621979886</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132114</v>
+        <v>154.2115424132112</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920845</v>
+        <v>41.91542210920831</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047984</v>
+        <v>109.7246170047982</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368624</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>128.672442822843</v>
+        <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>102.671750907999</v>
+        <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719823</v>
+        <v>64.09515511719808</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>740.8875257003393</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>759.2397825566179</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>324.0400586087388</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>628.0897131079345</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>611.8392473737348</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>522.2339425664198</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L35" t="n">
-        <v>513.2623588395702</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>803.4886170813098</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>568.2646525778702</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>506.6939529138986</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>571.2615849349741</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3370413.789634913</v>
+        <v>3373819.280759361</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>223.2310519093123</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>60.40703714891007</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>45.87488908974656</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356731</v>
+        <v>66.70865780356726</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100834</v>
+        <v>59.24433418100826</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -794,7 +794,7 @@
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>56.85640015455428</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>121.3842648627974</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>23.42820963260318</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>85.26595219976636</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>88.1879994018649</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -949,10 +949,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>371.256279962327</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>40.62363183383287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>14.46389722690833</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>46.08932666651323</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396209</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>155.1499317420158</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>238.086983326524</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>82.24304332837787</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.23797643592228</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>47.59990604631797</v>
+        <v>84.69473660442844</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,7 +2298,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491556</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>96.16402746788862</v>
       </c>
     </row>
     <row r="26">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>165.8374153170788</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>17.25588147840188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C31" t="n">
-        <v>113.5103646250815</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>15.0743711067587</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>38.86225679397899</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>15.11174121957136</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>80.15822541362891</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>194.0338686928871</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>59.90320919298808</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>181.4487096095777</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>113.5103646250815</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.619768071305</v>
+        <v>1427.83479322781</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.619768071305</v>
+        <v>1427.83479322781</v>
       </c>
       <c r="D2" t="n">
-        <v>1323.354069464554</v>
+        <v>1069.569094621059</v>
       </c>
       <c r="E2" t="n">
-        <v>937.5658168663099</v>
+        <v>683.7808420228148</v>
       </c>
       <c r="F2" t="n">
-        <v>526.5799120767024</v>
+        <v>272.7949372332072</v>
       </c>
       <c r="G2" t="n">
-        <v>108.3262354550231</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="H2" t="n">
-        <v>108.3262354550231</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015909</v>
+        <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060711</v>
+        <v>397.0764468060718</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927196</v>
+        <v>769.5640925927205</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689015</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.048915811683</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633673</v>
+        <v>1978.679112633676</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054133</v>
+        <v>2243.673398054136</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.451310684989</v>
+        <v>2111.666335841494</v>
       </c>
       <c r="V2" t="n">
-        <v>2034.388423341419</v>
+        <v>1780.603448497924</v>
       </c>
       <c r="W2" t="n">
-        <v>1681.619768071305</v>
+        <v>1427.83479322781</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.619768071305</v>
+        <v>1427.83479322781</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.619768071305</v>
+        <v>1427.83479322781</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>643.6546745992243</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="C3" t="n">
-        <v>469.2016453180973</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>320.2672356568461</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>161.0297806513906</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0297806513906</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0297806513906</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592118</v>
+        <v>278.010553859212</v>
       </c>
       <c r="L3" t="n">
-        <v>649.6216244022446</v>
+        <v>649.6216244022451</v>
       </c>
       <c r="M3" t="n">
-        <v>1135.253437604433</v>
+        <v>1135.253437604434</v>
       </c>
       <c r="N3" t="n">
-        <v>1649.445493246982</v>
+        <v>1649.445493246983</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119902</v>
+        <v>2053.415090336855</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.78188369591</v>
+        <v>2360.633238912864</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885991</v>
+        <v>2305.608548885994</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926782</v>
+        <v>2144.554785926785</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087513</v>
+        <v>1945.051103087516</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549723</v>
+        <v>1887.620395860694</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317981</v>
+        <v>1652.468287628951</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589779</v>
+        <v>1398.230930900749</v>
       </c>
       <c r="X3" t="n">
-        <v>1019.630310384246</v>
+        <v>1190.379430695217</v>
       </c>
       <c r="Y3" t="n">
-        <v>811.8700116192924</v>
+        <v>982.6191319302627</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.8390752546193</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="C4" t="n">
-        <v>492.228706706339</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="D4" t="n">
-        <v>342.1120672940033</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="E4" t="n">
-        <v>194.1989737116101</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="K4" t="n">
-        <v>88.805294101816</v>
+        <v>88.8052941018162</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365663</v>
+        <v>197.4326649365666</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950599</v>
+        <v>322.3541198950604</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896744</v>
+        <v>449.739838289675</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885932</v>
+        <v>551.3848716885941</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546193</v>
+        <v>325.6583726343374</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546193</v>
+        <v>70.97388442845053</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546193</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546193</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546193</v>
+        <v>47.30902621369984</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1448.576038264086</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C5" t="n">
-        <v>1448.576038264086</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D5" t="n">
-        <v>1090.310339657335</v>
+        <v>1125.437457991306</v>
       </c>
       <c r="E5" t="n">
-        <v>704.5220870590908</v>
+        <v>1125.437457991306</v>
       </c>
       <c r="F5" t="n">
-        <v>293.5361822694833</v>
+        <v>714.451553201699</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>296.4877450998858</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.715370239897</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.576038264086</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C8" t="n">
-        <v>808.0839286340174</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D8" t="n">
-        <v>449.8182300272669</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>512.9407614715037</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,28 +4886,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>146.1543816739506</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>146.1543816739506</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>146.1543816739506</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>146.1543816739506</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>146.1543816739506</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,10 +5026,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5041,19 +5041,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.715908442898</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2730.49472550168</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5068,25 +5068,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,10 +5120,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.7425750505952</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="C13" t="n">
-        <v>637.8063921226883</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D13" t="n">
-        <v>487.6897527103525</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1799.62636333499</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1799.62636333499</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V13" t="n">
-        <v>1544.941875129103</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="W13" t="n">
-        <v>1255.524705092143</v>
+        <v>1336.918239637851</v>
       </c>
       <c r="X13" t="n">
-        <v>1027.535154194125</v>
+        <v>1108.928688739834</v>
       </c>
       <c r="Y13" t="n">
-        <v>806.7425750505952</v>
+        <v>888.1361095963035</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.5676213586405</v>
+        <v>658.619281250059</v>
       </c>
       <c r="C16" t="n">
-        <v>392.5676213586405</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.5676213586405</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5518,16 +5518,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>1770.231306037953</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,16 +5624,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>460.4910241367934</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="C19" t="n">
-        <v>291.5548412088865</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="D19" t="n">
-        <v>291.5548412088865</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="E19" t="n">
-        <v>143.6417476264934</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="F19" t="n">
-        <v>143.6417476264934</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783409</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X19" t="n">
-        <v>681.2836032803235</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y19" t="n">
-        <v>460.4910241367934</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>360.1279170711156</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1014.851249206415</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5834,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5937,13 +5937,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
         <v>1015.408799357142</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>708.1835515663147</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6308,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.9043113423046</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="C28" t="n">
-        <v>260.9043113423046</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D28" t="n">
-        <v>260.9043113423046</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E28" t="n">
-        <v>112.9912177599115</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>805.3189328470103</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,16 +6448,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,19 +6466,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M29" t="n">
-        <v>2628.734306600803</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N29" t="n">
-        <v>3175.513123659585</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>3678.485594538922</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6493,22 +6493,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
         <v>95.56103444839442</v>
@@ -6666,7 +6666,7 @@
         <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.866433243363</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>416.1091927888621</v>
+        <v>379.616769834034</v>
       </c>
       <c r="K32" t="n">
-        <v>1070.832524924162</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6727,25 +6727,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,28 +6937,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,28 +7016,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>263.2638710736754</v>
+        <v>970.5459590456827</v>
       </c>
       <c r="C37" t="n">
-        <v>263.2638710736754</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1917.0886612623</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1917.0886612623</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1917.0886612623</v>
       </c>
       <c r="U37" t="n">
-        <v>1437.79612418831</v>
+        <v>1917.0886612623</v>
       </c>
       <c r="V37" t="n">
-        <v>1183.111635982423</v>
+        <v>1662.404173056413</v>
       </c>
       <c r="W37" t="n">
-        <v>893.6944659454626</v>
+        <v>1372.987003019452</v>
       </c>
       <c r="X37" t="n">
-        <v>665.7049150474453</v>
+        <v>1372.987003019452</v>
       </c>
       <c r="Y37" t="n">
-        <v>444.9123359039152</v>
+        <v>1152.194423875922</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.4972173763014</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1593.859220230846</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1593.859220230846</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1339.174732024959</v>
       </c>
       <c r="W40" t="n">
-        <v>713.2793474178488</v>
+        <v>1339.174732024959</v>
       </c>
       <c r="X40" t="n">
-        <v>485.2897965198315</v>
+        <v>1111.185181126942</v>
       </c>
       <c r="Y40" t="n">
-        <v>264.4972173763014</v>
+        <v>890.3926019834121</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551631</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001596</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1002.806306216376</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.840519464784</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,28 +7490,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>156.0693265625238</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7654,16 +7654,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P44" t="n">
         <v>4470.748294107237</v>
@@ -7678,22 +7678,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,28 +7727,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.866433243363</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262989</v>
+        <v>64.58008902262978</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>244.517516027283</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>60.73248448640333</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>251.1867816683989</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>288.0478149561031</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>76.45227440777347</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>123.471956347048</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.9990175570123</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>251.1867816683983</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>219.3344627260164</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,19 +11302,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>297.8289162490814</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>64.39901753415339</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>48.43601501006702</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>97.58893685355943</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.3466769161725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>118.4259022127103</v>
+        <v>81.33107165459978</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270136</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>122.4206258842062</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>13.99456486485855</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>128.1651665445294</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C31" t="n">
-        <v>53.7364564735463</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>152.1724499918691</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>50.06989587606836</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>271.1000969860415</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.3907238625403</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>92.4891296437039</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>84.85180572133271</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>52.51544363394669</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>767973.5396651595</v>
+        <v>767973.5396651597</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>702807.9631310871</v>
+        <v>702807.9631310873</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>702807.963131087</v>
+        <v>702807.9631310871</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>702807.9631310873</v>
+        <v>702807.9631310871</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778545</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778547</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="E2" t="n">
+        <v>714747.2163965703</v>
+      </c>
+      <c r="F2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="G2" t="n">
+        <v>714747.2163965702</v>
+      </c>
+      <c r="H2" t="n">
         <v>714747.2163965704</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>714747.2163965708</v>
+      </c>
+      <c r="J2" t="n">
+        <v>714747.2163965708</v>
+      </c>
+      <c r="K2" t="n">
         <v>714747.2163965704</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>714747.2163965704</v>
+      </c>
+      <c r="M2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="N2" t="n">
+        <v>714747.2163965702</v>
+      </c>
+      <c r="O2" t="n">
+        <v>714747.2163965703</v>
+      </c>
+      <c r="P2" t="n">
         <v>714747.2163965706</v>
-      </c>
-      <c r="H2" t="n">
-        <v>714747.2163965708</v>
-      </c>
-      <c r="I2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="J2" t="n">
-        <v>714747.2163965707</v>
-      </c>
-      <c r="K2" t="n">
-        <v>714747.2163965708</v>
-      </c>
-      <c r="L2" t="n">
-        <v>714747.2163965707</v>
-      </c>
-      <c r="M2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="N2" t="n">
-        <v>714747.2163965706</v>
-      </c>
-      <c r="O2" t="n">
-        <v>714747.2163965707</v>
-      </c>
-      <c r="P2" t="n">
-        <v>714747.2163965704</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106477</v>
+        <v>493391.6844106485</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446947</v>
+        <v>91792.63957446867</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.535683216</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220087</v>
+        <v>21342.0985822007</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760458</v>
+        <v>235704.9591760456</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,7 +26426,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="F4" t="n">
         <v>28561.83935289575</v>
@@ -26444,22 +26444,22 @@
         <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289578</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.1061314012</v>
+        <v>76261.10613140126</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,16 +26481,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66420.15684024018</v>
+        <v>-66420.15684024035</v>
       </c>
       <c r="C6" t="n">
-        <v>354363.4597769425</v>
+        <v>354363.4597769433</v>
       </c>
       <c r="D6" t="n">
-        <v>446156.099351412</v>
+        <v>446156.0993514118</v>
       </c>
       <c r="E6" t="n">
-        <v>-138247.5101057036</v>
+        <v>-137642.7506936714</v>
       </c>
       <c r="F6" t="n">
-        <v>589129.9038877032</v>
+        <v>589734.6632997354</v>
       </c>
       <c r="G6" t="n">
-        <v>589129.9038877033</v>
+        <v>589734.6632997351</v>
       </c>
       <c r="H6" t="n">
-        <v>589129.9038877035</v>
+        <v>589734.6632997353</v>
       </c>
       <c r="I6" t="n">
-        <v>589129.9038877032</v>
+        <v>589734.6632997356</v>
       </c>
       <c r="J6" t="n">
-        <v>434403.3682044875</v>
+        <v>435008.1276165195</v>
       </c>
       <c r="K6" t="n">
-        <v>567787.8053055027</v>
+        <v>568392.5647175346</v>
       </c>
       <c r="L6" t="n">
-        <v>589129.9038877034</v>
+        <v>589734.6632997353</v>
       </c>
       <c r="M6" t="n">
-        <v>459487.5890487583</v>
+        <v>460092.3484607907</v>
       </c>
       <c r="N6" t="n">
-        <v>589129.9038877033</v>
+        <v>589734.6632997351</v>
       </c>
       <c r="O6" t="n">
-        <v>589129.9038877034</v>
+        <v>589734.6632997352</v>
       </c>
       <c r="P6" t="n">
-        <v>589129.9038877032</v>
+        <v>589734.6632997354</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435501</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435501</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353724</v>
+        <v>71.38374637353661</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330755</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330755</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330755</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>190.8400879461502</v>
       </c>
       <c r="H2" t="n">
         <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>102.5876836469695</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174318</v>
+        <v>72.50477145174303</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,13 +27469,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>59.9963613817358</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>169.0416291078578</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>45.86255623583041</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
@@ -27557,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.3008017384878</v>
+        <v>54.30080173848771</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731842</v>
+        <v>39.90169565731833</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
@@ -27593,13 +27593,13 @@
         <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>286.28889559408</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>263.0947887039878</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>328.5182178210287</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>235.7347733624923</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>10.67409010993481</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7829238717195</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>88.876295125825</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-4.245968442017437e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672562</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>12.61309953212163</v>
       </c>
       <c r="I2" t="n">
-        <v>47.4811687745264</v>
+        <v>47.4811687745265</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676342</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.6638408015738</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787776</v>
+        <v>194.355347678778</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589795</v>
+        <v>216.25777255898</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095242</v>
+        <v>219.7570494095246</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.5103501811556</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579888</v>
+        <v>177.1052829579892</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709652</v>
+        <v>132.9986917709655</v>
       </c>
       <c r="R2" t="n">
-        <v>77.3643464894065</v>
+        <v>77.36434648940666</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978848</v>
+        <v>28.06503166978854</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216632</v>
+        <v>5.391318755216644</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380475</v>
+        <v>0.09852781277380496</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540498</v>
+        <v>0.6589628421540511</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014114</v>
+        <v>6.364193765014126</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784777</v>
+        <v>22.68797504784781</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403679</v>
+        <v>62.25753764403692</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683581</v>
+        <v>106.4080480683583</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.0787521966505</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247344</v>
+        <v>166.9661552247348</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.3852525302328</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382927</v>
+        <v>156.784023238293</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.8330009723819</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338362</v>
+        <v>84.1160287633838</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163479</v>
+        <v>40.91349997163488</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422107</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945489</v>
+        <v>2.656082683945495</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276645</v>
+        <v>0.04335281856276654</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.552452310865417</v>
+        <v>0.5524523108654181</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967075</v>
+        <v>4.911803272967084</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.61374767584367</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818498</v>
+        <v>39.05837837818506</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509116</v>
+        <v>64.18491393509129</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448209</v>
+        <v>82.13459174448226</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502168</v>
+        <v>86.59941087502185</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361428</v>
+        <v>84.54027044361445</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395915</v>
+        <v>78.08662299395931</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230459</v>
+        <v>66.81659585230473</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437596</v>
+        <v>46.26034759437606</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140032</v>
+        <v>24.84026481400325</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263672</v>
+        <v>9.627737090263693</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515872</v>
+        <v>2.360478055515877</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084096</v>
+        <v>0.03013376241084102</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302149</v>
+        <v>92.58102251302171</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.719402327758</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.2501472592412</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245393</v>
+        <v>435.4250728245397</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249174</v>
+        <v>427.6909102249178</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222142</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742019</v>
+        <v>267.6709953742023</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564204</v>
+        <v>123.0079925564207</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065777</v>
+        <v>233.0318461065779</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202351</v>
+        <v>375.3647177202355</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527164</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904527</v>
+        <v>519.3859147904531</v>
       </c>
       <c r="O3" t="n">
-        <v>258.7052948211312</v>
+        <v>408.0500980705781</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979886</v>
+        <v>310.3213621979888</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132112</v>
+        <v>4.866739163765607</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920831</v>
+        <v>41.91542210920844</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047984</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368624</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>128.672442822843</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.671750907999</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719808</v>
+        <v>64.09515511719822</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>759.2397825566179</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35895,10 +35895,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>840.3496503690146</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>267.239275376486</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
@@ -36132,10 +36132,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>522.2339425664198</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>323.7860185257249</v>
+        <v>286.9249852380198</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37083,7 +37083,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>803.4886170813098</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>556.5257492814169</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>753.4190306414133</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
